--- a/backend/public/excel/Nominee coc.xlsx
+++ b/backend/public/excel/Nominee coc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">S. No </t>
   </si>
@@ -31,6 +31,24 @@
     <t xml:space="preserve">Executive Head </t>
   </si>
   <si>
+    <t xml:space="preserve">Mr. Amit Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint Secretary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Lakhan Lal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representative in Lalitpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Nikhil Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel Committee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr. Raman Gupta</t>
   </si>
   <si>
@@ -41,12 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">Screening Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Nikhil Bansal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Committee</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Bishan Singh</t>
@@ -146,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +195,18 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +250,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,6 +268,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,10 +468,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -461,24 +493,24 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -486,10 +518,10 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -657,6 +689,32 @@
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend/public/excel/Nominee coc.xlsx
+++ b/backend/public/excel/Nominee coc.xlsx
@@ -43,42 +43,60 @@
     <t xml:space="preserve">Representative in Lalitpur</t>
   </si>
   <si>
+    <t xml:space="preserve">Mr. Rakesh Baghel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automobile Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Bishan Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ashok Anandani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screening Committee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr. Nikhil Bansal</t>
   </si>
   <si>
     <t xml:space="preserve">Steel Committee</t>
   </si>
   <si>
+    <t xml:space="preserve">Mr. Vivek Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Rahul Richharia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tourism Development Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Rajeev Babbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petroleum Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Atul Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Relations Committee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr. Raman Gupta</t>
   </si>
   <si>
     <t xml:space="preserve">Constitutional Committee</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Ashok Anandani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screening Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Bishan Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Rakesh Baghel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automobile Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Vivek Bansal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Export Committee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mr. Mahesh Agrawal</t>
   </si>
   <si>
@@ -91,22 +109,16 @@
     <t xml:space="preserve">Health Services Committee</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Rahul Richharia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tourism Development Committee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mr. Sunil Kumar Agarwal </t>
   </si>
   <si>
     <t xml:space="preserve">Trade &amp; Commerce Committee</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Rajeev Babbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petroleum Committee</t>
+    <t xml:space="preserve">Mr. Jayant Mani Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance and Taxation Committee</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Vibhor Gupta</t>
@@ -115,6 +127,12 @@
     <t xml:space="preserve">MSME Committee</t>
   </si>
   <si>
+    <t xml:space="preserve">Mr. Santosh Suri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial Development Committee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr. Pavitra Khanna</t>
   </si>
   <si>
@@ -125,24 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">Youth Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Santosh Suri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial Development Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Jayant Mani Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance and Taxation Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Atul Agrawal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Relations Committee</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Shantanu Agarwal </t>
@@ -158,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,12 +196,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -250,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,11 +280,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,10 +489,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -479,6 +502,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="40.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -493,24 +518,24 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -518,23 +543,27 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -548,18 +577,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -568,9 +600,12 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -579,9 +614,12 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -590,9 +628,12 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -601,20 +642,26 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -623,9 +670,12 @@
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -634,9 +684,12 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -645,9 +698,12 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -656,9 +712,12 @@
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -667,9 +726,11 @@
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -678,9 +739,12 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -689,9 +753,12 @@
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -700,9 +767,12 @@
       <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -711,10 +781,9 @@
       <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
